--- a/database/industries/darou/deabid/income/quarterly/rial_cumulative.xlsx
+++ b/database/industries/darou/deabid/income/quarterly/rial_cumulative.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\deabid\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\deabid\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADB14B0-2CD5-4B69-BD33-93559036C4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799DC5F2-FDAF-4EF6-9E72-0E483F22B7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>9 ماهه منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>12 ماهه منتهی به 1401/09</t>
   </si>
   <si>
+    <t>3 ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-08-08 (4)</t>
-  </si>
-  <si>
     <t>1400-12-04 (10)</t>
   </si>
   <si>
@@ -85,10 +82,10 @@
     <t>1401-07-29 (3)</t>
   </si>
   <si>
-    <t>1401-11-30 (7)</t>
-  </si>
-  <si>
-    <t>1401-01-30</t>
+    <t>1402-01-08 (9)</t>
+  </si>
+  <si>
+    <t>1402-01-29 (2)</t>
   </si>
   <si>
     <t>1401-06-12 (2)</t>
@@ -97,7 +94,10 @@
     <t>1401-07-29</t>
   </si>
   <si>
-    <t>1401-11-30</t>
+    <t>1402-01-29 (4)</t>
+  </si>
+  <si>
+    <t>1402-01-29</t>
   </si>
   <si>
     <t>فروش</t>
@@ -619,19 +619,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="8" width="28" customWidth="1"/>
-    <col min="9" max="9" width="29" customWidth="1"/>
-    <col min="10" max="12" width="28" customWidth="1"/>
-    <col min="13" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="7" width="28" customWidth="1"/>
+    <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="9" max="11" width="28" customWidth="1"/>
+    <col min="12" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -645,7 +645,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -661,7 +661,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -677,7 +677,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -691,7 +691,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -707,7 +707,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -723,7 +723,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -737,7 +737,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -773,7 +773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -809,7 +809,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -823,151 +823,151 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>9972120</v>
+        <v>14783310</v>
       </c>
       <c r="E11" s="13">
-        <v>14783310</v>
+        <v>4543096</v>
       </c>
       <c r="F11" s="13">
-        <v>4543096</v>
+        <v>9023017</v>
       </c>
       <c r="G11" s="13">
-        <v>9023017</v>
+        <v>15925840</v>
       </c>
       <c r="H11" s="13">
-        <v>15925840</v>
+        <v>23558622</v>
       </c>
       <c r="I11" s="13">
-        <v>23558622</v>
+        <v>8208603</v>
       </c>
       <c r="J11" s="13">
-        <v>8208603</v>
+        <v>16365300</v>
       </c>
       <c r="K11" s="13">
-        <v>16365300</v>
+        <v>27904566</v>
       </c>
       <c r="L11" s="13">
-        <v>27904566</v>
+        <v>44021398</v>
       </c>
       <c r="M11" s="13">
-        <v>44021398</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>15223330</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-3805076</v>
+        <v>-5734442</v>
       </c>
       <c r="E12" s="11">
-        <v>-5734442</v>
+        <v>-1740002</v>
       </c>
       <c r="F12" s="11">
-        <v>-1740002</v>
+        <v>-3491006</v>
       </c>
       <c r="G12" s="11">
-        <v>-3491006</v>
+        <v>-6441067</v>
       </c>
       <c r="H12" s="11">
-        <v>-6441067</v>
+        <v>-9474168</v>
       </c>
       <c r="I12" s="11">
-        <v>-9474168</v>
+        <v>-3449223</v>
       </c>
       <c r="J12" s="11">
-        <v>-3449223</v>
+        <v>-6957851</v>
       </c>
       <c r="K12" s="11">
-        <v>-6957851</v>
+        <v>-10912228</v>
       </c>
       <c r="L12" s="11">
-        <v>-10912228</v>
+        <v>-16615319</v>
       </c>
       <c r="M12" s="11">
-        <v>-16615319</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-5490754</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>6167044</v>
+        <v>9048868</v>
       </c>
       <c r="E13" s="15">
-        <v>9048868</v>
+        <v>2803094</v>
       </c>
       <c r="F13" s="15">
-        <v>2803094</v>
+        <v>5532011</v>
       </c>
       <c r="G13" s="15">
-        <v>5532011</v>
+        <v>9484773</v>
       </c>
       <c r="H13" s="15">
-        <v>9484773</v>
+        <v>14084454</v>
       </c>
       <c r="I13" s="15">
-        <v>14084454</v>
+        <v>4759380</v>
       </c>
       <c r="J13" s="15">
-        <v>4759380</v>
+        <v>9407449</v>
       </c>
       <c r="K13" s="15">
-        <v>9407449</v>
+        <v>16992338</v>
       </c>
       <c r="L13" s="15">
-        <v>16992338</v>
+        <v>27406079</v>
       </c>
       <c r="M13" s="15">
-        <v>27406079</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>9732576</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-1632044</v>
+        <v>-2423891</v>
       </c>
       <c r="E14" s="11">
-        <v>-2423891</v>
+        <v>-749314</v>
       </c>
       <c r="F14" s="11">
-        <v>-749314</v>
+        <v>-1669477</v>
       </c>
       <c r="G14" s="11">
-        <v>-1669477</v>
+        <v>-2465947</v>
       </c>
       <c r="H14" s="11">
-        <v>-2465947</v>
+        <v>-3672541</v>
       </c>
       <c r="I14" s="11">
-        <v>-3672541</v>
+        <v>-1157341</v>
       </c>
       <c r="J14" s="11">
-        <v>-1157341</v>
+        <v>-2615602</v>
       </c>
       <c r="K14" s="11">
-        <v>-2615602</v>
+        <v>-4125545</v>
       </c>
       <c r="L14" s="11">
-        <v>-4125545</v>
+        <v>-6050214</v>
       </c>
       <c r="M14" s="11">
-        <v>-6050214</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-1772672</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1003,259 +1003,259 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>-8661</v>
+        <v>-244763</v>
       </c>
       <c r="E16" s="11">
-        <v>-244763</v>
+        <v>25084</v>
       </c>
       <c r="F16" s="11">
-        <v>25084</v>
+        <v>61321</v>
       </c>
       <c r="G16" s="11">
-        <v>61321</v>
+        <v>53379</v>
       </c>
       <c r="H16" s="11">
-        <v>53379</v>
+        <v>37790</v>
       </c>
       <c r="I16" s="11">
-        <v>37790</v>
+        <v>14886</v>
       </c>
       <c r="J16" s="11">
-        <v>14886</v>
+        <v>56484</v>
       </c>
       <c r="K16" s="11">
-        <v>56484</v>
+        <v>118725</v>
       </c>
       <c r="L16" s="11">
-        <v>118725</v>
+        <v>-120097</v>
       </c>
       <c r="M16" s="11">
-        <v>-120097</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-15035</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>4526339</v>
+        <v>6380214</v>
       </c>
       <c r="E17" s="15">
-        <v>6380214</v>
+        <v>2078864</v>
       </c>
       <c r="F17" s="15">
-        <v>2078864</v>
+        <v>3923855</v>
       </c>
       <c r="G17" s="15">
-        <v>3923855</v>
+        <v>7072205</v>
       </c>
       <c r="H17" s="15">
-        <v>7072205</v>
+        <v>10449703</v>
       </c>
       <c r="I17" s="15">
-        <v>10449703</v>
+        <v>3616925</v>
       </c>
       <c r="J17" s="15">
-        <v>3616925</v>
+        <v>6848331</v>
       </c>
       <c r="K17" s="15">
-        <v>6848331</v>
+        <v>12985518</v>
       </c>
       <c r="L17" s="15">
-        <v>12985518</v>
+        <v>21235768</v>
       </c>
       <c r="M17" s="15">
-        <v>21235768</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>7944869</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-553894</v>
+        <v>-904461</v>
       </c>
       <c r="E18" s="11">
-        <v>-904461</v>
+        <v>-409365</v>
       </c>
       <c r="F18" s="11">
-        <v>-409365</v>
+        <v>-1049365</v>
       </c>
       <c r="G18" s="11">
-        <v>-1049365</v>
+        <v>-1655599</v>
       </c>
       <c r="H18" s="11">
-        <v>-1655599</v>
+        <v>-2143157</v>
       </c>
       <c r="I18" s="11">
-        <v>-2143157</v>
+        <v>-691719</v>
       </c>
       <c r="J18" s="11">
-        <v>-691719</v>
+        <v>-1736556</v>
       </c>
       <c r="K18" s="11">
-        <v>-1736556</v>
+        <v>-3005326</v>
       </c>
       <c r="L18" s="11">
-        <v>-3005326</v>
+        <v>-3893758</v>
       </c>
       <c r="M18" s="11">
-        <v>-3893758</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-1323360</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>-84326</v>
+        <v>15041</v>
       </c>
       <c r="E19" s="13">
-        <v>15041</v>
+        <v>-1420</v>
       </c>
       <c r="F19" s="13">
-        <v>-1420</v>
+        <v>42729</v>
       </c>
       <c r="G19" s="13">
-        <v>42729</v>
+        <v>82758</v>
       </c>
       <c r="H19" s="13">
-        <v>82758</v>
+        <v>61039</v>
       </c>
       <c r="I19" s="13">
-        <v>61039</v>
+        <v>11191</v>
       </c>
       <c r="J19" s="13">
-        <v>11190</v>
+        <v>83203</v>
       </c>
       <c r="K19" s="13">
-        <v>83203</v>
+        <v>189865</v>
       </c>
       <c r="L19" s="13">
-        <v>189865</v>
+        <v>46919</v>
       </c>
       <c r="M19" s="13">
-        <v>46650</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>579389</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>3888119</v>
+        <v>5490794</v>
       </c>
       <c r="E20" s="17">
-        <v>5490794</v>
+        <v>1668079</v>
       </c>
       <c r="F20" s="17">
-        <v>1668079</v>
+        <v>2917219</v>
       </c>
       <c r="G20" s="17">
-        <v>2917219</v>
+        <v>5499364</v>
       </c>
       <c r="H20" s="17">
-        <v>5499364</v>
+        <v>8367585</v>
       </c>
       <c r="I20" s="17">
-        <v>8367585</v>
+        <v>2936397</v>
       </c>
       <c r="J20" s="17">
-        <v>2936396</v>
+        <v>5194978</v>
       </c>
       <c r="K20" s="17">
-        <v>5194978</v>
+        <v>10170057</v>
       </c>
       <c r="L20" s="17">
-        <v>10170057</v>
+        <v>17388929</v>
       </c>
       <c r="M20" s="17">
-        <v>17388660</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>7200898</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-872776</v>
+        <v>-958910</v>
       </c>
       <c r="E21" s="13">
-        <v>-958910</v>
+        <v>-417020</v>
       </c>
       <c r="F21" s="13">
-        <v>-417020</v>
+        <v>-714719</v>
       </c>
       <c r="G21" s="13">
-        <v>-714719</v>
+        <v>-1347344</v>
       </c>
       <c r="H21" s="13">
-        <v>-1347344</v>
+        <v>-1506165</v>
       </c>
       <c r="I21" s="13">
-        <v>-1506165</v>
+        <v>-719417</v>
       </c>
       <c r="J21" s="13">
-        <v>-719417</v>
+        <v>-1116920</v>
       </c>
       <c r="K21" s="13">
-        <v>-1116920</v>
+        <v>-2186562</v>
       </c>
       <c r="L21" s="13">
-        <v>-2186562</v>
+        <v>-2303450</v>
       </c>
       <c r="M21" s="13">
-        <v>-2303450</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-1512188</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>3015343</v>
+        <v>4531884</v>
       </c>
       <c r="E22" s="17">
-        <v>4531884</v>
+        <v>1251059</v>
       </c>
       <c r="F22" s="17">
-        <v>1251059</v>
+        <v>2202500</v>
       </c>
       <c r="G22" s="17">
-        <v>2202500</v>
+        <v>4152020</v>
       </c>
       <c r="H22" s="17">
-        <v>4152020</v>
+        <v>6861420</v>
       </c>
       <c r="I22" s="17">
-        <v>6861420</v>
+        <v>2216980</v>
       </c>
       <c r="J22" s="17">
-        <v>2216979</v>
+        <v>4078058</v>
       </c>
       <c r="K22" s="17">
-        <v>4078058</v>
+        <v>7983495</v>
       </c>
       <c r="L22" s="17">
-        <v>7983495</v>
+        <v>15085479</v>
       </c>
       <c r="M22" s="17">
-        <v>15085210</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>5688710</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>38</v>
       </c>
@@ -1291,79 +1291,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>3015343</v>
+        <v>4531884</v>
       </c>
       <c r="E24" s="17">
-        <v>4531884</v>
+        <v>1251059</v>
       </c>
       <c r="F24" s="17">
-        <v>1251059</v>
+        <v>2202500</v>
       </c>
       <c r="G24" s="17">
-        <v>2202500</v>
+        <v>4152020</v>
       </c>
       <c r="H24" s="17">
-        <v>4152020</v>
+        <v>6861420</v>
       </c>
       <c r="I24" s="17">
-        <v>6861420</v>
+        <v>2216980</v>
       </c>
       <c r="J24" s="17">
-        <v>2216979</v>
+        <v>4078058</v>
       </c>
       <c r="K24" s="17">
-        <v>4078058</v>
+        <v>7983495</v>
       </c>
       <c r="L24" s="17">
-        <v>7983495</v>
+        <v>15085479</v>
       </c>
       <c r="M24" s="17">
-        <v>15085210</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>5688710</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>670</v>
+        <v>1007</v>
       </c>
       <c r="E25" s="13">
-        <v>1007</v>
+        <v>278</v>
       </c>
       <c r="F25" s="13">
-        <v>278</v>
+        <v>489</v>
       </c>
       <c r="G25" s="13">
-        <v>489</v>
+        <v>923</v>
       </c>
       <c r="H25" s="13">
-        <v>923</v>
+        <v>508</v>
       </c>
       <c r="I25" s="13">
-        <v>508</v>
+        <v>164</v>
       </c>
       <c r="J25" s="13">
-        <v>493</v>
+        <v>906</v>
       </c>
       <c r="K25" s="13">
-        <v>906</v>
+        <v>591</v>
       </c>
       <c r="L25" s="13">
-        <v>591</v>
+        <v>1117</v>
       </c>
       <c r="M25" s="13">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>41</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>4500000</v>
       </c>
       <c r="H26" s="11">
-        <v>4500000</v>
+        <v>13500000</v>
       </c>
       <c r="I26" s="11">
         <v>13500000</v>
@@ -1390,7 +1390,7 @@
         <v>4500000</v>
       </c>
       <c r="K26" s="11">
-        <v>4500000</v>
+        <v>13500000</v>
       </c>
       <c r="L26" s="11">
         <v>13500000</v>
@@ -1399,43 +1399,43 @@
         <v>13500000</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>223</v>
+        <v>336</v>
       </c>
       <c r="E27" s="13">
-        <v>336</v>
+        <v>93</v>
       </c>
       <c r="F27" s="13">
-        <v>93</v>
+        <v>163</v>
       </c>
       <c r="G27" s="13">
-        <v>163</v>
+        <v>308</v>
       </c>
       <c r="H27" s="13">
-        <v>308</v>
+        <v>508</v>
       </c>
       <c r="I27" s="13">
-        <v>508</v>
+        <v>164</v>
       </c>
       <c r="J27" s="13">
-        <v>164</v>
+        <v>302</v>
       </c>
       <c r="K27" s="13">
-        <v>302</v>
+        <v>591</v>
       </c>
       <c r="L27" s="13">
-        <v>591</v>
+        <v>1117</v>
       </c>
       <c r="M27" s="13">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
